--- a/data/Consolidated_Template.xlsx
+++ b/data/Consolidated_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/fayolle_unhcr_org/Documents/Documents/GitHub/r4ai4r4v/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7909D74C-4ED2-4D3C-BB73-85DBFDD84A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC1B256-39F7-4A5E-8A4F-523A788DB4A0}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7909D74C-4ED2-4D3C-BB73-85DBFDD84A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{271EC740-B14F-4F1A-A307-68887D22D716}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF26F57B-6D95-4D83-8F29-04F3CA99F6D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8705" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9965" uniqueCount="52">
   <si>
     <t>Platform</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>2021-07</t>
+  </si>
+  <si>
+    <t>2021-08</t>
   </si>
 </sst>
 </file>
@@ -694,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0714268E-DCFF-4B9D-9916-38DC263939E9}">
-  <dimension ref="A1:E1741"/>
+  <dimension ref="A1:E1993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1748" sqref="F1748"/>
+    <sheetView tabSelected="1" topLeftCell="A1709" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1747" sqref="C1747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30303,6 +30306,4290 @@
         <v>19</v>
       </c>
       <c r="E1741" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1742" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1742" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1742" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1742" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1742" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1743" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1743" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1743" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1743" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1743" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1744" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1744" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1744" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1744" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1744" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1745" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1745" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1745" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1745" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1745" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1746" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1746" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1746" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1746" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1746" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1747" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1747" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1747" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1747" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1747" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1748" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1748" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1748" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1748" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1748" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1749" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1749" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1749" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1749" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1749" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1750" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1750" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1750" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1750" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1750" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1751" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1751" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1751" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1751" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1751" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1752" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1752" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1752" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1752" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1752" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1753" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1753" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1753" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1753" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1753" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1754" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1754" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1754" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1754" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1754" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1755" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1755" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1755" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1755" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1755" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1756" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1756" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1756" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1756" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1756" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1757" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1757" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1757" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1757" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1757" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1758" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1758" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1758" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1758" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1758" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1759" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1759" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1759" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1759" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1759" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1760" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1760" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1760" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1760" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1760" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1761" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1761" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1761" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1761" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1761" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1762" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1762" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1762" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1762" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1762" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1763" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1763" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1763" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1763" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1763" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1764" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1764" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1764" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1764" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1764" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1765" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1765" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1765" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1765" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1765" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1766" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1766" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1766" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1766" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1766" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1767" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1767" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1767" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1767" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1767" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1768" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1768" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1768" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1768" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1768" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1769" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1769" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1769" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1769" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1769" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1770" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1770" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1770" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1770" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1770" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1771" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1771" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1771" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1771" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1771" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1772" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1772" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1772" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1772" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1772" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1773" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1773" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1773" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1773" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1773" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1774" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1774" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1774" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1774" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1774" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1775" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1775" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1775" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1775" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1775" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1776" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1776" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1776" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1776" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1776" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1777" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1777" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1777" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1777" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1777" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1778" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1778" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1778" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1778" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1778" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1779" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1779" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1779" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1779" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1779" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1780" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1780" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1780" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1780" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1780" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1781" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1781" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1781" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1781" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1781" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1782" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1782" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1782" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1782" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1782" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1783" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1783" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1783" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1783" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1783" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1784" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1784" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1784" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1784" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1784" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1785" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1785" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1785" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1785" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1785" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1786" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1786" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1786" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1786" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1786" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1787" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1787" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1787" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1787" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1787" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1788" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1788" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1788" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1788" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1788" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1789" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1789" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1789" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1789" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1789" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1790" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1790" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1790" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1790" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1790" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1791" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1791" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1791" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1791" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1791" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1792" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1792" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1792" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1792" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1792" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1793" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1793" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1793" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1793" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1793" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1794" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1794" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1794" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1794" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1794" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1795" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1795" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1795" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1795" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1795" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1796" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1796" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1796" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1796" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1796" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1797" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1797" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1797" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1797" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1797" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1798" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1798" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1798" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1798" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1798" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1799" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1799" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1799" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1799" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1799" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1800" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1800" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1800" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1800" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1800" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1801" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1801" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1801" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1801" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1801" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1802" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1802" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1802" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1802" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1802" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1803" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1803" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1803" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1803" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1803" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1804" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1804" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1804" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1804" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1804" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1805" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1805" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1805" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1805" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1805" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1806" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1806" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1806" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1806" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1806" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1807" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1807" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1807" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1807" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1807" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1808" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1808" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1808" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1808" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1808" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1809" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1809" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1809" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1809" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1809" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1810" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1810" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1810" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1810" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1810" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1811" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1811" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1811" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1811" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1811" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1812" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1812" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1812" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1812" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1812" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1813" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1813" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1813" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1813" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1813" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1814" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1814" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1814" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1814" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1814" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1815" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1815" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1815" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1815" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1815" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1816" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1816" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1816" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1816" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1816" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1817" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1817" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1817" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1817" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1817" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1818" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1818" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1818" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1818" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1818" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1819" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1819" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1819" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1819" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1819" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1820" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1820" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1820" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1820" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1820" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1821" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1821" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1821" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1821" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1821" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1822" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1822" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1822" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1822" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1822" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1823" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1823" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1823" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1823" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1823" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1824" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1824" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1824" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1824" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1824" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1825" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1825" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1825" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1825" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1825" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1826" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1826" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1826" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1826" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1826" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1827" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1827" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1827" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1827" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1827" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1828" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1828" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1828" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1828" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1828" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1829" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1829" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1829" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1829" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1829" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1830" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1830" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1830" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1830" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1830" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1831" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1831" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1831" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1831" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1831" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1832" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1832" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1832" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1832" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1832" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1833" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1833" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1833" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1833" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1833" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1834" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1834" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1834" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1834" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1834" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1835" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1835" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1835" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1835" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1835" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1836" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1836" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1836" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1836" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1836" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1837" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1837" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1837" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1837" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1837" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1838" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1838" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1838" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1838" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1838" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A1839" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1839" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1839" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1839" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1839" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1840" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1840" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1840" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1840" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1840" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1841" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1841" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1841" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1841" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1841" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1842" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1842" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1842" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1842" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1842" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1843" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1843" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1843" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1843" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1843" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1844" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1844" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1844" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1844" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1844" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1845" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1845" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1845" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1845" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1845" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1846" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1846" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1846" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1846" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1846" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1847" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1847" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1847" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1847" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1847" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1848" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1848" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1848" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1848" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1848" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1849" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1849" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1849" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1849" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1849" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1850" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1850" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1850" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1850" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1850" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1851" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1851" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1851" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1851" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1851" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1852" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1852" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1852" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1852" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1852" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1853" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1853" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1853" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1853" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1853" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1854" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1854" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1854" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1854" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1854" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1855" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1855" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1855" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1855" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1855" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1856" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1856" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1856" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1856" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1856" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1857" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1857" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1857" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1857" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1857" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1858" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1858" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1858" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1858" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1858" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1859" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1859" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1859" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1859" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1859" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1860" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1860" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1860" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1860" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1860" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1861" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1861" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1861" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1861" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1861" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1862" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1862" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1862" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1862" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1862" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1863" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1863" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1863" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1863" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1863" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1864" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1864" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1864" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1864" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1864" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1865" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1865" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1865" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1865" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1865" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1866" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1866" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1866" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1866" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1866" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1867" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1867" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1867" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1867" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1867" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1868" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1868" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1868" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1868" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1868" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1869" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1869" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1869" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1869" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1869" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1870" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1870" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1870" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1870" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1870" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1871" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1871" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1871" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1871" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1871" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1872" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1872" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1872" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1872" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1872" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1873" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1873" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1873" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1873" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1873" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1874" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1874" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1874" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1874" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1874" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1875" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1875" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1875" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1875" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1875" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1876" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1876" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1876" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1876" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1876" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1877" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1877" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1877" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1877" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1877" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1878" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1878" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1878" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1878" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1878" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1879" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1879" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1879" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1879" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1879" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1880" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1880" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1880" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1880" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1880" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1881" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1881" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1881" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1881" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1881" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1882" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1882" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1882" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1882" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1882" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1883" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1883" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1883" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1883" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1883" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1884" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1884" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1884" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1884" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1884" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1885" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1885" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1885" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1885" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1885" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1886" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1886" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1886" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1886" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1886" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1887" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1887" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1887" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1887" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1887" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1888" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1888" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1888" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1888" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1888" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1889" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1889" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1889" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1889" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1889" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1890" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1890" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1890" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1890" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1890" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1891" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1891" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1891" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1891" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1891" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1892" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1892" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1892" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1892" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1892" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1893" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1893" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1893" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1893" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1893" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1894" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1894" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1894" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1894" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1894" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1895" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1895" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1895" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1895" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1895" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1896" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1896" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1896" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1896" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1896" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1897" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1897" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1897" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1897" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1897" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1898" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1898" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1898" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1898" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1898" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1899" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1899" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1899" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1899" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1899" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1900" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1900" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1900" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1900" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1900" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1901" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1901" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1901" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1901" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1901" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1902" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1902" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1902" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1902" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1902" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1903" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1903" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1903" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1903" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1903" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1904" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1904" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1904" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1904" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1904" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1905" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1905" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1905" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1905" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1905" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1906" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1906" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1906" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1906" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1906" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1907" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1907" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1907" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1907" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1907" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1908" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1908" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1908" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1908" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1908" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A1909" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1909" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1909" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1909" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1909" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1910" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1910" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1910" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1910" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1910" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1911" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1911" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1911" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1911" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1911" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1912" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1912" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1912" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1912" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1912" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1913" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1913" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1913" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1913" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1913" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1914" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1914" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1914" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1914" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1914" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1915" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1915" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1915" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1915" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1915" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1916" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1916" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1916" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1916" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1916" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1917" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1917" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1917" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1917" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1917" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1918" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1918" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1918" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1918" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1918" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1919" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1919" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1919" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1919" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1919" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1920" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1920" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1920" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1920" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1920" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1921" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1921" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1921" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1921" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1921" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1922" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1922" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1922" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1922" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1922" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A1923" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1923" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1923" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1923" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1923" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1924" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1924" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1924" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1924" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1924" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1925" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1925" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1925" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1925" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1925" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1926" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1926" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1926" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1926" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1926" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1927" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1927" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1927" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1927" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1927" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1928" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1928" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1928" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1928" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1928" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1929" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1929" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1929" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1929" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1929" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1930" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1930" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1930" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1930" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1930" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1931" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1931" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1931" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1931" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1931" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1932" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1932" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1932" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1932" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1932" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1933" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1933" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1933" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1933" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1933" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1934" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1934" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1934" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1934" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1934" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1935" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1935" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1935" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1935" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1935" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1936" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1936" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1936" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1936" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1936" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1937" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1937" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1937" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1937" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1937" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1938" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1938" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1938" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1938" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1938" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1939" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1939" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1939" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1939" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1939" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1940" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1940" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1940" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1940" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1940" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1941" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1941" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1941" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1941" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1941" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1942" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1942" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1942" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1942" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1942" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1943" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1943" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1943" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1943" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1943" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1944" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1944" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1944" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1944" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1944" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1945" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1945" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1945" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1945" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1945" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1946" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1946" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1946" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1946" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1946" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1947" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1947" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1947" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1947" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1947" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1948" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1948" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1948" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1948" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1948" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1949" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1949" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1949" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1949" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1949" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1950" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1950" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1950" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1950" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1950" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1951" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1951" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1951" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1951" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1951" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1952" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1952" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1952" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1952" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1952" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1953" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1953" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1953" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1953" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1953" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1954" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1954" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1954" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1954" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1954" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1955" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1955" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1955" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1955" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1955" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1956" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1956" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1956" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1956" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1956" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1957" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1957" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1957" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1957" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1957" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1958" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1958" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1958" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1958" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1958" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1959" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1959" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1959" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1959" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1959" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1960" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1960" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1960" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1960" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1960" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1961" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1961" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1961" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1961" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1961" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1962" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1962" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1962" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1962" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1962" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1963" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1963" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1963" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1963" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1963" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1964" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1964" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1964" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1964" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1964" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1965" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1965" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1965" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1965" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1965" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1966" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1966" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1966" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1966" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1966" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1967" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1967" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1967" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1967" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1967" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1968" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1968" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1968" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1968" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1968" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1969" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1969" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1969" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1969" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1969" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1970" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1970" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1970" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1970" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1970" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1971" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1971" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1971" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1971" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1971" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1972" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1972" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1972" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1972" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1972" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1973" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1973" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1973" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1973" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1973" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1974" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1974" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1974" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1974" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1974" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1975" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1975" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1975" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1975" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1975" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1976" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1976" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1976" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1976" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1976" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1977" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1977" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1977" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1977" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1977" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1978" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1978" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1978" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1978" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1978" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1979" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1979" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1979" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1979" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1979" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1980" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1980" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1980" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1980" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1980" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1981" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1981" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1981" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1981" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1981" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1982" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1982" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1982" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1982" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1982" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1983" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1983" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1983" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1983" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1983" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1984" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1984" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1984" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1984" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1984" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1985" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1985" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1985" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1985" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1985" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1986" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1986" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1986" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1986" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1986" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1987" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1987" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1987" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1987" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1987" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1988" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1988" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1988" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1988" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1988" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1989" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1989" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1989" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1989" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1989" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1990" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1990" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1990" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1990" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1990" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1991" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1991" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1991" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1991" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1991" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1992" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1992" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1992" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1992" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1992" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1993" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1993" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1993" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1993" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1993" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -30323,6 +34610,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFD7C8349A9406459E368CD7F514FE79" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="423fbf72e319f6f0615e3b6672e63d37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd4a0f5b-7cde-4b5a-a880-b1d6b61f2e81" xmlns:ns3="5146c389-b906-4f30-a64f-4dbeeedc5eb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9df2abc6fdc49fec393593bda87cf87b" ns2:_="" ns3:_="">
     <xsd:import namespace="fd4a0f5b-7cde-4b5a-a880-b1d6b61f2e81"/>
@@ -30539,22 +34841,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D53581C-0DC0-4462-8E93-D29C2378DE5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5B33199-E9F6-462E-96A4-B844804A17D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17CFBF-BF71-416D-A49B-2CAF0941F5DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30571,21 +34875,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5B33199-E9F6-462E-96A4-B844804A17D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D53581C-0DC0-4462-8E93-D29C2378DE5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Consolidated_Template.xlsx
+++ b/data/Consolidated_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/fayolle_unhcr_org/Documents/Documents/GitHub/r4v_app_conosur/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{7909D74C-4ED2-4D3C-BB73-85DBFDD84A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C798998-3946-43AC-B11C-C0930789077E}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{7909D74C-4ED2-4D3C-BB73-85DBFDD84A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1817E2F-C19E-4307-BCEB-7C13DE1FFA08}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF26F57B-6D95-4D83-8F29-04F3CA99F6D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11225" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12485" uniqueCount="54">
   <si>
     <t>Platform</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>2021-09</t>
+  </si>
+  <si>
+    <t>2021-10</t>
   </si>
 </sst>
 </file>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0714268E-DCFF-4B9D-9916-38DC263939E9}">
-  <dimension ref="A1:E2245"/>
+  <dimension ref="A1:E2497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2491" sqref="A1:E2497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4285,7 +4288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="11" t="s">
         <v>35</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
         <v>35</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
         <v>35</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="11" t="s">
         <v>35</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="11" t="s">
         <v>35</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="11" t="s">
         <v>35</v>
       </c>
@@ -9589,7 +9592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="11" t="s">
         <v>35</v>
       </c>
@@ -10065,7 +10068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="11" t="s">
         <v>35</v>
       </c>
@@ -12683,7 +12686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" s="11" t="s">
         <v>35</v>
       </c>
@@ -13397,7 +13400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" s="11" t="s">
         <v>35</v>
       </c>
@@ -13635,7 +13638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" s="11" t="s">
         <v>35</v>
       </c>
@@ -14111,7 +14114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" s="11" t="s">
         <v>35</v>
       </c>
@@ -16729,7 +16732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="943" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A943" s="1" t="s">
         <v>35</v>
       </c>
@@ -17443,7 +17446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="985" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A985" s="1" t="s">
         <v>35</v>
       </c>
@@ -17681,7 +17684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="999" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A999" s="1" t="s">
         <v>35</v>
       </c>
@@ -18157,7 +18160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1027" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1027" s="1" t="s">
         <v>35</v>
       </c>
@@ -20775,7 +20778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1181" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1181" s="11" t="s">
         <v>35</v>
       </c>
@@ -21727,7 +21730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1237" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1237" s="11" t="s">
         <v>35</v>
       </c>
@@ -21965,7 +21968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1251" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1251" s="1" t="s">
         <v>35</v>
       </c>
@@ -22441,7 +22444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1279" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1279" s="1" t="s">
         <v>35</v>
       </c>
@@ -25059,7 +25062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1433" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1433" s="11" t="s">
         <v>35</v>
       </c>
@@ -26011,7 +26014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1489" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1489" s="11" t="s">
         <v>35</v>
       </c>
@@ -26249,7 +26252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1503" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1503" s="1" t="s">
         <v>35</v>
       </c>
@@ -26725,7 +26728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1531" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1531" s="1" t="s">
         <v>35</v>
       </c>
@@ -29343,7 +29346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1685" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1685" s="11" t="s">
         <v>35</v>
       </c>
@@ -30295,7 +30298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1741" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1741" s="11" t="s">
         <v>35</v>
       </c>
@@ -30533,7 +30536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1755" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1755" s="11" t="s">
         <v>35</v>
       </c>
@@ -30771,7 +30774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1769" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1769" s="1" t="s">
         <v>35</v>
       </c>
@@ -31247,7 +31250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1797" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1797" s="1" t="s">
         <v>35</v>
       </c>
@@ -33865,7 +33868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1951" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1951" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1951" s="11" t="s">
         <v>35</v>
       </c>
@@ -34817,7 +34820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2007" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="2007" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2007" s="11" t="s">
         <v>35</v>
       </c>
@@ -35055,7 +35058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2021" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="2021" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2021" s="1" t="s">
         <v>35</v>
       </c>
@@ -35531,7 +35534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2049" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="2049" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2049" s="1" t="s">
         <v>35</v>
       </c>
@@ -38149,7 +38152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2203" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="2203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2203" s="11" t="s">
         <v>35</v>
       </c>
@@ -38877,6 +38880,4290 @@
         <v>19</v>
       </c>
       <c r="E2245" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2246" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2246" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2246" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2246" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2247" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2247" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2247" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2247" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2247" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2248" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2248" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2248" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2248" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2248" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2249" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2249" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2249" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2249" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2249" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2250" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2250" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2250" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2250" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2250" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2251" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2251" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2251" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2251" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2251" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2252" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2252" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2252" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2253" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2253" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2253" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2253" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2254" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2254" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2254" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2254" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2255" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2255" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2255" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2255" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2256" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2256" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2256" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2256" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2257" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2257" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2257" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2257" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2257" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2258" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2258" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2258" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2258" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2258" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2259" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2259" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2259" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2259" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2259" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2260" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2260" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2260" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2260" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2260" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2261" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2261" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2261" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2261" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2262" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2262" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2262" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2262" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2262" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2263" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2263" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2263" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2263" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2263" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2264" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2264" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2264" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2264" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2264" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2265" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2265" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2265" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2265" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2265" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2266" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2266" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2266" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2266" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2267" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2267" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2267" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2267" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2267" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2268" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2268" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2268" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2268" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2269" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2269" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2269" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2269" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2269" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2270" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2270" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2270" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2270" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2270" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2271" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2271" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2271" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2271" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2271" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2272" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2272" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2272" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2272" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2272" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2273" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2273" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2273" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2273" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2273" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2274" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2274" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2274" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2274" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2274" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2275" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2275" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2275" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2275" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2275" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2276" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2276" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2276" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2276" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2276" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2277" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2277" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2277" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2277" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2277" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2278" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2278" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2278" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2278" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2278" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2279" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2279" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2279" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2279" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2279" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2280" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2280" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2280" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2280" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2280" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2281" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2281" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2281" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2281" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2281" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2282" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2282" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2282" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2282" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2282" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2283" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2283" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2283" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2283" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2283" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2284" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2284" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2284" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2284" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2284" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2285" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2285" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2285" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2285" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2285" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2286" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2286" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2286" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2286" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2286" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2287" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2287" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2287" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2287" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2288" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2288" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2288" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2288" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2288" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2289" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2289" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2289" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2289" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2289" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2290" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2290" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2290" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2290" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2290" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2291" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2291" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2291" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2291" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2291" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2292" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2292" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2292" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2292" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2292" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2293" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2293" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2293" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2293" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2293" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2294" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2294" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2294" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2294" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2294" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2295" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2295" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2295" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2295" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2295" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2296" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2296" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2296" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2296" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2296" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2297" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2297" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2297" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2297" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2297" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2298" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2298" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2298" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2298" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2298" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2299" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2299" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2299" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2299" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2299" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2300" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2300" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2300" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2300" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2300" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2301" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2301" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2301" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2301" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2301" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2302" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2302" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2302" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2302" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2302" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2303" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2303" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2303" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2303" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2303" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2304" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2304" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2304" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2304" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2304" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2305" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2305" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2305" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2305" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2305" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2306" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2306" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2306" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2306" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2306" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2307" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2307" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2307" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2307" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2307" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2308" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2308" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2308" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2308" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2308" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2309" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2309" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2309" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2309" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2309" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2310" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2310" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2310" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2310" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2310" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2311" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2311" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2311" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2311" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2311" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2312" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2312" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2312" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2312" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2312" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2313" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2313" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2313" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2313" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2313" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2314" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2314" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2314" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2314" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2314" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2315" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2315" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2315" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2315" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2315" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2316" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2316" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2316" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2316" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2316" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2317" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2317" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2317" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2317" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2317" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2318" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2318" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2318" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2318" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2318" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2319" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2319" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2319" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2319" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2319" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2320" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2320" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2320" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2320" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2320" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2321" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2321" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2321" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2321" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2321" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2322" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2322" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2322" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2322" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2323" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2323" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2323" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2323" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2323" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2324" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2324" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2324" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2324" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2324" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2325" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2325" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2325" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2325" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2325" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2326" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2326" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2326" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2326" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2326" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2327" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2327" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2327" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2327" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2327" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2328" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2328" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2328" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2328" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2328" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2329" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2329" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2329" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2329" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2329" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2330" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2330" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2330" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2330" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2330" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2331" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2331" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2331" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2331" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2331" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2332" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2332" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2332" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2332" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2332" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2333" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2333" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2333" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2333" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2333" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2334" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2334" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2334" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2334" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2334" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2335" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2335" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2335" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2335" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2335" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2336" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2336" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2336" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2336" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2337" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2337" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2337" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2337" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2337" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2338" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2338" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2338" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2338" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2338" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2339" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2339" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2339" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2339" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2340" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2340" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2340" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2340" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2340" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2341" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2341" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2341" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2341" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2341" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2342" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2342" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2342" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2342" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2342" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2343" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2343" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2343" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2343" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2343" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2344" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2344" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2344" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2344" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2344" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2345" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2345" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2345" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2345" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2345" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2346" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2346" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2346" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2346" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2346" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2347" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2347" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2347" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2347" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2347" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2348" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2348" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2348" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2348" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2348" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2349" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2349" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2349" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2349" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2349" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2350" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2350" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2350" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2350" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2351" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2351" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2351" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2351" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2351" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2352" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2352" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2352" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2352" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2352" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2353" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2353" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2353" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2353" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2353" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2354" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2354" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2354" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2354" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2354" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2355" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2355" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2355" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2355" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2355" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2356" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2356" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2356" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2356" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2356" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2357" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2357" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2357" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2357" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2357" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2358" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2358" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2358" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2358" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2358" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2359" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2359" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2359" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2359" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2359" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2360" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2360" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2360" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2360" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2360" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2361" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2361" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2361" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2361" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2361" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2362" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2362" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2362" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2362" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2362" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2363" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2363" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2363" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2363" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2363" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2364" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2364" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2364" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2364" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2364" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2365" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2365" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2365" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2365" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2365" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2366" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2366" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2366" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2366" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2366" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2367" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2367" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2367" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2367" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2367" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2368" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2368" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2368" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2368" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2368" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2369" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2369" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2369" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2369" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2369" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2370" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2370" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2370" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2370" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2370" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2371" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2371" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2371" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2371" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2371" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2372" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2372" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2372" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2372" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2372" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2373" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2373" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2373" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2373" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2373" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2374" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2374" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2374" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2374" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2374" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2375" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2375" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2375" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2375" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2375" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2376" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2376" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2376" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2376" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2376" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2377" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2377" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2377" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2377" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2377" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2378" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2378" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2378" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2378" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2378" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2379" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2379" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2379" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2379" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2379" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2380" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2380" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2380" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2380" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2380" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2381" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2381" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2381" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2381" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2381" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2382" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2382" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2382" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2382" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2382" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2383" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2383" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2383" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2383" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2383" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2384" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2384" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2384" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2384" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2384" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2385" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2385" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2385" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2385" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2385" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2386" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2386" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2386" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2386" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2386" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2387" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2387" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2387" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2387" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2387" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2388" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2388" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2388" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2388" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2388" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2389" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2389" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2389" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2389" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2389" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2390" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2390" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2390" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2390" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2390" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2391" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2391" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2391" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2391" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2391" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2392" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2392" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2392" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2392" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2392" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2393" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2393" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2393" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2393" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2393" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2394" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2394" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2394" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2394" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2394" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2395" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2395" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2395" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2395" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2395" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2396" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2396" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2396" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2396" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2396" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2397" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2397" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2397" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2397" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2397" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2398" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2398" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2398" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2398" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2398" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2399" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2399" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2399" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2399" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2399" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2400" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2400" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2400" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2400" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2400" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2401" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2401" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2401" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2401" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2401" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2402" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2402" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2402" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2402" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2402" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2403" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2403" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2403" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2403" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2403" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2404" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2404" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2404" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2404" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2404" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2405" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2405" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2405" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2405" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2405" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2406" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2406" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2406" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2406" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2407" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2407" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2407" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2407" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2407" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2408" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2408" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2408" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2408" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2408" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2409" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2409" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2409" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2409" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2409" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2410" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2410" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2410" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2410" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2410" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2411" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2411" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2411" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2411" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2411" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2412" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2412" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2412" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2412" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2412" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2413" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2413" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2413" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2413" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2413" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2414" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2414" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2414" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2414" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2414" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2415" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2415" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2415" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2415" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2415" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2416" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2416" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2416" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2416" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2416" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2417" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2417" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2417" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2417" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2417" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2418" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2418" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2418" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2418" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2418" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2419" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2419" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2419" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2419" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2419" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2420" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2420" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2420" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2420" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2420" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2421" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2421" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2421" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2421" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2421" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2422" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2422" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2422" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2422" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2422" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2423" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2423" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2423" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2423" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2423" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2424" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2424" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2424" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2424" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2424" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2425" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2425" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2425" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2425" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2425" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2426" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2426" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2426" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2426" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2426" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2427" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2427" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2427" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2427" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2427" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2428" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2428" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2428" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2428" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2428" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2429" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2429" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2429" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2429" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2429" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2430" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2430" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2430" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2430" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2430" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2431" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2431" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2431" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2431" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2431" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2432" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2432" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2432" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2432" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2432" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2433" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2433" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2433" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2433" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2433" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2434" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2434" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2434" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2434" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2434" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2435" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2435" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2435" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2435" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2435" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2436" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2436" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2436" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2436" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2436" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2437" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2437" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2437" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2437" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2437" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2438" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2438" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2438" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2438" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2438" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2439" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2439" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2439" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2439" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2439" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2440" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2440" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2440" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2440" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2440" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2441" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2441" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2441" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2441" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2441" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2442" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2442" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2442" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2442" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2442" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2443" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2443" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2443" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2443" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2443" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2444" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2444" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2444" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2444" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2444" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2445" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2445" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2445" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2445" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2445" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2446" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2446" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2446" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2446" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2446" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2447" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2447" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2447" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2447" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2447" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2448" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2448" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2448" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2448" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2448" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2449" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2449" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2449" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2449" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2449" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2450" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2450" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2450" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2450" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2450" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2451" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2451" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2451" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2451" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2451" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2452" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2452" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2452" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2452" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2452" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2453" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2453" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2453" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2453" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2453" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2454" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2454" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2454" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2454" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2454" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2455" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2455" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2455" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2455" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2455" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2456" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2456" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2456" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2456" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2456" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2457" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2457" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2457" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2457" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2457" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2458" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2458" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2458" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2458" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2458" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2459" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2459" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2459" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2459" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2459" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2460" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2460" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2460" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2460" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2460" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2461" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2461" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2461" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2461" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2461" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2462" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2462" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2462" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2462" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2462" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2463" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2463" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2463" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2463" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2463" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2464" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2464" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2464" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2464" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2464" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2465" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2465" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2465" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2465" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2465" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2466" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2466" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2466" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2466" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2466" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2467" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2467" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2467" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2467" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2467" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2468" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2468" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2468" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2468" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2468" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2469" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2469" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2469" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2469" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2469" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2470" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2470" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2470" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2470" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2470" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2471" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2471" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2471" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2471" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2471" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2472" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2472" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2472" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2472" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2472" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2473" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2473" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2473" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2473" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2473" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2474" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2474" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2474" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2474" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2474" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2475" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2475" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2475" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2475" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2475" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2476" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2476" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2476" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2476" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2476" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2477" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2477" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2477" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2477" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2477" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2478" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2478" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2478" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2478" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2478" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2479" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2479" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2479" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2479" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2479" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2480" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2480" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2480" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2480" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2480" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2481" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2481" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2481" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2481" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2481" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2482" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2482" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2482" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2482" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2482" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2483" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2483" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2483" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2483" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2483" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2484" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2484" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2484" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2484" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2484" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2485" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2485" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2485" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2485" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2485" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2486" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2486" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2486" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2486" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2486" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2487" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2487" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2487" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2487" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2487" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2488" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2488" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2488" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2488" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2488" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2489" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2489" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2489" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2489" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2489" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2490" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2490" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2490" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2490" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2490" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2491" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2491" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2491" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2491" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2491" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2492" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2492" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2492" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2492" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2492" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2493" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2493" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2493" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2493" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2493" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2494" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2494" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2494" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2494" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2494" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2495" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2495" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2495" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2495" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2495" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2496" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2496" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2496" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2496" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2496" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2497" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2497" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2497" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2497" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2497" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -38897,15 +43184,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFD7C8349A9406459E368CD7F514FE79" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="423fbf72e319f6f0615e3b6672e63d37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd4a0f5b-7cde-4b5a-a880-b1d6b61f2e81" xmlns:ns3="5146c389-b906-4f30-a64f-4dbeeedc5eb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9df2abc6fdc49fec393593bda87cf87b" ns2:_="" ns3:_="">
     <xsd:import namespace="fd4a0f5b-7cde-4b5a-a880-b1d6b61f2e81"/>
@@ -39122,6 +43400,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -39129,14 +43416,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5B33199-E9F6-462E-96A4-B844804A17D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17CFBF-BF71-416D-A49B-2CAF0941F5DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39155,6 +43434,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5B33199-E9F6-462E-96A4-B844804A17D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D53581C-0DC0-4462-8E93-D29C2378DE5A}">
   <ds:schemaRefs>

--- a/data/Consolidated_Template.xlsx
+++ b/data/Consolidated_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/fayolle_unhcr_org/Documents/Documents/GitHub/r4v_app_conosur/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/fayolle_unhcr_org/Documents/Documents/GitHub/r4v_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{7909D74C-4ED2-4D3C-BB73-85DBFDD84A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1817E2F-C19E-4307-BCEB-7C13DE1FFA08}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{7909D74C-4ED2-4D3C-BB73-85DBFDD84A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D4379B2-8752-40AE-B974-802D73A17785}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF26F57B-6D95-4D83-8F29-04F3CA99F6D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12485" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13745" uniqueCount="55">
   <si>
     <t>Platform</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>2021-10</t>
+  </si>
+  <si>
+    <t>2021-11</t>
   </si>
 </sst>
 </file>
@@ -703,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0714268E-DCFF-4B9D-9916-38DC263939E9}">
-  <dimension ref="A1:E2497"/>
+  <dimension ref="A1:E2749"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2491" sqref="A1:E2497"/>
+    <sheetView tabSelected="1" topLeftCell="A2486" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2498" sqref="C2498:C2749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43164,6 +43167,4290 @@
         <v>19</v>
       </c>
       <c r="E2497" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2498" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2498" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2498" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2498" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2498" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2499" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2499" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2499" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2499" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2499" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2500" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2500" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2500" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2500" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2500" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2501" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2501" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2501" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2501" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2501" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2502" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2502" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2502" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2502" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2502" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2503" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2503" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2503" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2503" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2503" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2504" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2504" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2504" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2504" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2504" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2505" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2505" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2505" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2505" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2505" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2506" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2506" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2506" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2506" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2506" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2507" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2507" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2507" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2507" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2507" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2508" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2508" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2508" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2508" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2508" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2509" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2509" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2509" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2509" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2509" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2510" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2510" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2510" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2510" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2510" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2511" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2511" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2511" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2511" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2511" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2512" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2512" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2512" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2512" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2512" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2513" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2513" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2513" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2513" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2513" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2514" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2514" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2514" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2514" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2514" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2515" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2515" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2515" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2515" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2515" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2516" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2516" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2516" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2516" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2516" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2517" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2517" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2517" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2517" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2517" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2518" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2518" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2518" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2518" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2518" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2519" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2519" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2519" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2519" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2519" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2520" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2520" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2520" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2520" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2520" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2521" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2521" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2521" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2521" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2521" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2522" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2522" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2522" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2522" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2522" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2523" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2523" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2523" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2523" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2523" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2524" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2524" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2524" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2524" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2524" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2525" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2525" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2525" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2525" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2525" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2526" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2526" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2526" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2526" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2526" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2527" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2527" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2527" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2527" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2527" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2528" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2528" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2528" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2528" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2528" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2529" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2529" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2529" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2529" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2529" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2530" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2530" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2530" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2530" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2530" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2531" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2531" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2531" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2531" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2531" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2532" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2532" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2532" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2532" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2532" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2533" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2533" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2533" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2533" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2533" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2534" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2534" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2534" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2534" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2534" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2535" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2535" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2535" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2535" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2535" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2536" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2536" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2536" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2536" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2536" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2537" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2537" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2537" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2537" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2537" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2538" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2538" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2538" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2538" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2538" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2539" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2539" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2539" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2539" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2539" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2540" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2540" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2540" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2540" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2540" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2541" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2541" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2541" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2541" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2541" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2542" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2542" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2542" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2542" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2542" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2543" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2543" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2543" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2543" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2543" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2544" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2544" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2544" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2544" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2544" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2545" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2545" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2545" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2545" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2545" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2546" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2546" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2546" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2546" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2546" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2547" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2547" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2547" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2547" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2547" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2548" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2548" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2548" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2548" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2548" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2549" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2549" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2549" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2549" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2549" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2550" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2550" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2550" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2550" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2550" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2551" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2551" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2551" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2551" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2551" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2552" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2552" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2552" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2552" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2552" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2553" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2553" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2553" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2553" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2553" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2554" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2554" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2554" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2554" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2554" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2555" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2555" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2555" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2555" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2555" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2556" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2556" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2556" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2556" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2556" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2557" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2557" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2557" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2557" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2557" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2558" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2558" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2558" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2558" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2558" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2559" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2559" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2559" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2559" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2559" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2560" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2560" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2560" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2560" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2560" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2561" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2561" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2561" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2561" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2561" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2562" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2562" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2562" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2562" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2562" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2563" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2563" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2563" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2563" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2563" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2564" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2564" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2564" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2564" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2564" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2565" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2565" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2565" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2565" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2565" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2566" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2566" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2566" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2566" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2566" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2567" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2567" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2567" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2567" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2567" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2568" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2568" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2568" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2568" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2568" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2569" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2569" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2569" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2569" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2569" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2570" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2570" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2570" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2570" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2570" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2571" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2571" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2571" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2571" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2571" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2572" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2572" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2572" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2572" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2572" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2573" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2573" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2573" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2573" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2573" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2574" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2574" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2574" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2574" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2574" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2575" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2575" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2575" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2575" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2575" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2576" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2576" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2576" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2576" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2576" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2577" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2577" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2577" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2577" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2577" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2578" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2578" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2578" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2578" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2578" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2579" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2579" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2579" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2579" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2579" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2580" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2580" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2580" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2580" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2580" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2581" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2581" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2581" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2581" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2581" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2582" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2582" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2582" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2582" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2582" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2583" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2583" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2583" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2583" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2583" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2584" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2584" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2584" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2584" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2584" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2585" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2585" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2585" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2585" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2585" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2586" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2586" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2586" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2586" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2586" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2587" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2587" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2587" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2587" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2587" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2588" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2588" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2588" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2588" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2588" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2589" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2589" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2589" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2589" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2589" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2590" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2590" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2590" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2590" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2590" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2591" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2591" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2591" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2591" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2591" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2592" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2592" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2592" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2592" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2592" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2593" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2593" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2593" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2593" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2593" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2594" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2594" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2594" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2594" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2594" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2595" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2595" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2595" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2595" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2595" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2596" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2596" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2596" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2596" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2596" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2597" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2597" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2597" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2597" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2597" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2598" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2598" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2598" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2598" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2598" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2599" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2599" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2599" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2599" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2599" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2600" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2600" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2600" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2600" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2600" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2601" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2601" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2601" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2601" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2601" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2602" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2602" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2602" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2602" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2602" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2603" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2603" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2603" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2603" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2603" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2604" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2604" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2604" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2604" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2604" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2605" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2605" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2605" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2605" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2605" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2606" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2606" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2606" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2606" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2606" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2607" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2607" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2607" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2607" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2607" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2608" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2608" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2608" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2608" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2608" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2609" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2609" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2609" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2609" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2609" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2610" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2610" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2610" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2610" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2610" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2611" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2611" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2611" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2611" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2611" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2612" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2612" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2612" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2612" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2612" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2613" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2613" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2613" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2613" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2613" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2614" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2614" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2614" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2614" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2614" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2615" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2615" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2615" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2615" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2615" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2616" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2616" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2616" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2616" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2616" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2617" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2617" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2617" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2617" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2617" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2618" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2618" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2618" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2618" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2618" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2619" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2619" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2619" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2619" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2619" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2620" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2620" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2620" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2620" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2620" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2621" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2621" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2621" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2621" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2621" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2622" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2622" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2622" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2622" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2622" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2623" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2623" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2623" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2623" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2623" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2624" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2624" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2624" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2624" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2624" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2625" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2625" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2625" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2625" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2625" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2626" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2626" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2626" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2626" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2626" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2627" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2627" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2627" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2627" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2627" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2628" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2628" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2628" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2628" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2628" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2629" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2629" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2629" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2629" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2629" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2630" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2630" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2630" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2630" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2630" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2631" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2631" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2631" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2631" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2631" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2632" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2632" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2632" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2632" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2632" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2633" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2633" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2633" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2633" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2633" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2634" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2634" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2634" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2634" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2634" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2635" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2635" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2635" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2635" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2635" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2636" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2636" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2636" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2636" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2636" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2637" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2637" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2637" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2637" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2637" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2638" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2638" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2638" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2638" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2638" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2639" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2639" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2639" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2639" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2639" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2640" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2640" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2640" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2640" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2640" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2641" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2641" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2641" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2641" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2641" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2642" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2642" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2642" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2642" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2642" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2643" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2643" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2643" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2643" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2643" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2644" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2644" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2644" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2644" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2644" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2645" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2645" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2645" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2645" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2645" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2646" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2646" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2646" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2646" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2646" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2647" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2647" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2647" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2647" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2647" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2648" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2648" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2648" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2648" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2648" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2649" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2649" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2649" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2649" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2649" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2650" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2650" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2650" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2650" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2650" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2651" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2651" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2651" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2651" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2651" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2652" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2652" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2652" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2652" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2652" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2653" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2653" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2653" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2653" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2653" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2654" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2654" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2654" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2654" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2654" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2655" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2655" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2655" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2655" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2655" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2656" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2656" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2656" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2656" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2656" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2657" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2657" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2657" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2657" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2657" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2658" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2658" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2658" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2658" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2658" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2659" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2659" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2659" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2659" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2659" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2660" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2660" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2660" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2660" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2660" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2661" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2661" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2661" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2661" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2661" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2662" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2662" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2662" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2662" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2662" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2663" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2663" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2663" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2663" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2663" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2664" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2664" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2664" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2664" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2664" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2665" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2665" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2665" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2665" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2665" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2666" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2666" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2666" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2666" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2666" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2667" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2667" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2667" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2667" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2667" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2668" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2668" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2668" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2668" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2668" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2669" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2669" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2669" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2669" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2669" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2670" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2670" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2670" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2670" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2670" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2671" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2671" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2671" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2671" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2671" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2672" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2672" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2672" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2672" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2672" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2673" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2673" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2673" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2673" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2673" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2674" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2674" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2674" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2674" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2674" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2675" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2675" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2675" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2675" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2675" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2676" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2676" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2676" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2676" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2676" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2677" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2677" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2677" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2677" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2677" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2678" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2678" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2678" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2678" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2678" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2679" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2679" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2679" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2679" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2679" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2680" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2680" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2680" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2680" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2680" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2681" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2681" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2681" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2681" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2681" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2682" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2682" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2682" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2682" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2682" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2683" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2683" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2683" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2683" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2683" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2684" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2684" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2684" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2684" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2684" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2685" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2685" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2685" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2685" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2685" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2686" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2686" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2686" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2686" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2686" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2687" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2687" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2687" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2687" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2687" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2688" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2688" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2688" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2688" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2688" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2689" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2689" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2689" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2689" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2689" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2690" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2690" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2690" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2690" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2690" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2691" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2691" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2691" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2691" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2691" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2692" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2692" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2692" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2692" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2692" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2693" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2693" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2693" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2693" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2693" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2694" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2694" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2694" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2694" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2694" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2695" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2695" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2695" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2695" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2695" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2696" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2696" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2696" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2696" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2696" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2697" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2697" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2697" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2697" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2697" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2698" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2698" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2698" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2698" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2698" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2699" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2699" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2699" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2699" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2699" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2700" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2700" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2700" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2700" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2700" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2701" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2701" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2701" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2701" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2701" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2702" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2702" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2702" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2702" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2702" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2703" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2703" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2703" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2703" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2703" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2704" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2704" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2704" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2704" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2704" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2705" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2705" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2705" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2705" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2705" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2706" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2706" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2706" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2706" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2706" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2707" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2707" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2707" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2707" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2707" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2708" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2708" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2708" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2708" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2708" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2709" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2709" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2709" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2709" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2709" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2710" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2710" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2710" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2710" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2710" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2711" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2711" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2711" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2711" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2711" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2712" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2712" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2712" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2712" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2712" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2713" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2713" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2713" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2713" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2713" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2714" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2714" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2714" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2714" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2714" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2715" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2715" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2715" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2715" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2715" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2716" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2716" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2716" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2716" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2716" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2717" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2717" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2717" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2717" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2717" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2718" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2718" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2718" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2718" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2718" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2719" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2719" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2719" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2719" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2719" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2720" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2720" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2720" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2720" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2720" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2721" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2721" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2721" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2721" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2721" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2722" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2722" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2722" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2722" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2722" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2723" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2723" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2723" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2723" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2723" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2724" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2724" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2724" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2724" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2724" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2725" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2725" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2725" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2725" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2725" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2726" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2726" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2726" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2726" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2726" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2727" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2727" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2727" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2727" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2727" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2728" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2728" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2728" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2728" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2728" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2729" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2729" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2729" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2729" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2729" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2730" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2730" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2730" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2730" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2730" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2731" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2731" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2731" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2731" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2731" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2732" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2732" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2732" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2732" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2732" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2733" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2733" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2733" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2733" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2733" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2734" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2734" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2734" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2734" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2734" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2735" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2735" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2735" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2735" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2735" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2736" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2736" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2736" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2736" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2736" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2737" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2737" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2737" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2737" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2737" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2738" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2738" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2738" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2738" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2738" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2739" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2739" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2739" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2739" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2739" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2740" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2740" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2740" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2740" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2740" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2741" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2741" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2741" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2741" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2741" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2742" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2742" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2742" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2742" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2742" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2743" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2743" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2743" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2743" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2743" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2744" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2744" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2744" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2744" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2744" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2745" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2745" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2745" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2745" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2745" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2746" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2746" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2746" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2746" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2746" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2747" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2747" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2747" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2747" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2747" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2748" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2748" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2748" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2748" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2748" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2749" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2749" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2749" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2749" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2749" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -43184,6 +47471,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFD7C8349A9406459E368CD7F514FE79" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="423fbf72e319f6f0615e3b6672e63d37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd4a0f5b-7cde-4b5a-a880-b1d6b61f2e81" xmlns:ns3="5146c389-b906-4f30-a64f-4dbeeedc5eb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9df2abc6fdc49fec393593bda87cf87b" ns2:_="" ns3:_="">
     <xsd:import namespace="fd4a0f5b-7cde-4b5a-a880-b1d6b61f2e81"/>
@@ -43400,15 +47696,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -43416,6 +47703,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5B33199-E9F6-462E-96A4-B844804A17D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17CFBF-BF71-416D-A49B-2CAF0941F5DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43434,14 +47729,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5B33199-E9F6-462E-96A4-B844804A17D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D53581C-0DC0-4462-8E93-D29C2378DE5A}">
   <ds:schemaRefs>

--- a/data/Consolidated_Template.xlsx
+++ b/data/Consolidated_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/fayolle_unhcr_org/Documents/Documents/GitHub/r4v_app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\GitHub\r4v_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{7909D74C-4ED2-4D3C-BB73-85DBFDD84A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D4379B2-8752-40AE-B974-802D73A17785}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F5EB70-36D6-4549-83BA-FF823A77BEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF26F57B-6D95-4D83-8F29-04F3CA99F6D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF26F57B-6D95-4D83-8F29-04F3CA99F6D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated Beneficiaries" sheetId="20" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13745" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15005" uniqueCount="56">
   <si>
     <t>Platform</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-12</t>
   </si>
 </sst>
 </file>
@@ -706,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0714268E-DCFF-4B9D-9916-38DC263939E9}">
-  <dimension ref="A1:E2749"/>
+  <dimension ref="A1:E3001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2486" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2498" sqref="C2498:C2749"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47451,6 +47454,4290 @@
         <v>19</v>
       </c>
       <c r="E2749" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2750" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2750" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2750" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2750" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2750" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2751" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2751" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2751" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2751" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2751" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2752" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2752" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2752" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2752" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2752" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2753" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2753" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2753" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2753" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2753" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2754" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2754" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2754" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2754" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2754" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2755" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2755" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2755" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2755" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2755" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2756" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2756" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2756" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2756" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2756" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2757" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2757" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2757" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2757" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2757" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2758" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2758" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2758" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2758" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2758" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2759" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2759" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2759" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2759" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2759" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2760" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2760" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2760" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2760" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2760" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2761" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2761" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2761" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2761" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2761" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2762" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2762" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2762" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2762" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2762" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2763" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2763" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2763" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2763" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2763" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2764" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2764" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2764" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2764" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2764" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2765" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2765" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2765" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2765" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2765" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2766" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2766" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2766" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2766" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2766" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2767" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2767" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2767" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2767" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2767" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2768" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2768" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2768" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2768" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2768" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2769" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2769" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2769" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2769" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2769" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2770" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2770" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2770" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2770" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2770" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2771" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2771" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2771" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2771" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2771" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2772" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2772" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2772" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2772" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2772" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2773" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2773" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2773" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2773" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2773" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2774" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2774" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2774" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2774" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2774" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2775" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2775" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2775" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2775" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2775" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2776" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2776" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2776" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2776" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2776" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2777" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2777" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2777" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2777" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2777" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2778" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2778" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2778" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2778" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2778" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2779" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2779" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2779" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2779" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2779" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2780" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2780" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2780" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2780" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2780" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2781" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2781" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2781" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2781" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2781" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2782" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2782" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2782" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2782" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2782" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2783" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2783" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2783" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2783" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2783" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2784" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2784" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2784" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2784" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2784" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2785" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2785" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2785" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2785" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2785" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2786" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2786" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2786" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2786" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2786" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2787" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2787" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2787" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2787" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2787" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2788" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2788" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2788" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2788" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2788" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2789" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2789" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2789" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2789" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2789" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2790" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2790" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2790" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2790" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2790" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2791" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2791" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2791" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2791" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2791" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2792" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2792" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2792" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2792" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2792" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2793" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2793" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2793" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2793" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2793" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2794" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2794" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2794" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2794" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2794" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2795" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2795" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2795" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2795" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2795" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2796" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2796" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2796" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2796" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2796" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2797" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2797" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2797" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2797" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2797" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2798" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2798" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2798" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2798" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2798" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2799" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2799" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2799" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2799" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2799" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2800" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2800" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2800" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2800" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2800" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2801" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2801" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2801" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2801" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2801" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2802" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2802" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2802" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2802" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2802" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2803" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2803" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2803" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2803" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2803" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2804" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2804" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2804" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2804" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2804" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2805" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2805" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2805" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2805" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2805" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2806" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2806" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2806" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2806" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2806" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2807" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2807" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2807" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2807" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2807" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2808" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2808" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2808" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2808" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2808" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2809" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2809" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2809" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2809" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2809" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2810" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2810" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2810" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2810" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2810" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2811" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2811" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2811" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2811" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2811" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2812" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2812" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2812" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2812" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2812" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2813" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2813" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2813" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2813" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2813" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2814" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2814" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2814" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2814" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2814" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2815" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2815" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2815" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2815" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2815" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2816" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2816" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2816" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2816" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2816" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2817" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2817" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2817" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2817" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2817" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2818" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2818" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2818" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2818" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2818" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2819" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2819" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2819" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2819" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2819" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2820" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2820" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2820" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2820" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2820" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2821" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2821" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2821" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2821" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2821" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2822" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2822" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2822" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2822" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2822" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2823" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2823" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2823" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2823" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2823" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2824" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2824" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2824" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2824" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2824" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2825" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2825" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2825" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2825" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2825" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2826" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2826" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2826" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2826" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2826" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2827" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2827" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2827" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2827" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2827" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2828" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2828" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2828" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2828" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2828" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2829" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2829" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2829" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2829" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2829" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2830" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2830" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2830" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2830" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2830" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2831" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2831" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2831" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2831" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2831" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2832" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2832" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2832" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2832" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2832" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2833" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2833" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2833" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2833" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2833" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2834" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2834" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2834" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2834" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2834" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2835" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2835" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2835" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2835" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2835" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2836" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2836" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2836" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2836" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2836" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2837" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2837" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2837" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2837" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2837" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2838" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2838" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2838" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2838" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2838" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2839" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2839" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2839" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2839" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2839" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2840" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2840" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2840" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2840" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2840" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2841" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2841" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2841" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2841" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2841" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2842" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2842" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2842" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2842" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2842" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2843" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2843" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2843" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2843" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2843" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2844" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2844" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2844" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2844" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2844" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2845" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2845" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2845" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2845" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2845" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2846" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2846" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2846" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2846" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2846" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2847" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2847" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2847" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2847" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2847" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2848" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2848" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2848" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2848" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2848" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2849" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2849" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2849" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2849" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2849" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2850" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2850" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2850" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2850" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2850" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2851" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2851" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2851" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2851" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2851" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2852" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2852" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2852" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2852" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2852" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2853" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2853" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2853" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2853" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2853" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2854" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2854" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2854" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2854" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2854" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2855" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2855" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2855" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2855" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2855" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2856" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2856" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2856" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2856" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2856" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2857" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2857" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2857" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2857" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2857" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2858" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2858" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2858" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2858" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2858" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2859" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2859" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2859" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2859" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2859" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2860" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2860" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2860" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2860" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2860" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2861" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2861" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2861" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2861" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2861" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2862" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2862" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2862" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2862" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2862" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2863" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2863" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2863" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2863" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2863" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2864" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2864" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2864" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2864" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2864" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2865" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2865" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2865" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2865" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2865" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2866" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2866" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2866" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2866" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2866" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2867" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2867" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2867" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2867" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2867" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2868" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2868" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2868" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2868" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2868" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2869" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2869" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2869" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2869" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2869" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2870" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2870" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2870" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2870" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2870" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2871" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2871" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2871" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2871" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2871" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2872" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2872" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2872" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2872" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2872" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2873" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2873" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2873" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2873" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2873" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2874" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2874" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2874" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2874" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2874" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2875" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2875" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2875" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2875" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2875" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2876" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2876" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2876" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2876" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2876" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2877" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2877" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2877" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2877" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2877" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2878" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2878" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2878" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2878" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2878" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2879" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2879" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2879" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2879" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2879" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2880" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2880" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2880" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2880" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2880" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2881" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2881" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2881" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2881" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2881" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2882" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2882" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2882" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2882" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2882" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2883" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2883" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2883" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2883" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2883" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2884" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2884" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2884" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2884" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2884" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2885" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2885" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2885" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2885" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2885" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2886" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2886" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2886" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2886" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2886" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2887" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2887" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2887" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2887" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2887" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2888" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2888" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2888" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2888" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2888" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2889" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2889" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2889" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2889" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2889" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2890" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2890" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2890" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2890" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2890" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2891" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2891" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2891" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2891" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2891" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2892" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2892" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2892" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2892" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2892" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2893" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2893" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2893" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2893" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2893" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2894" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2894" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2894" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2894" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2894" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2895" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2895" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2895" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2895" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2895" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2896" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2896" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2896" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2896" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2896" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2897" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2897" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2897" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2897" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2897" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2898" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2898" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2898" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2898" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2898" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2899" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2899" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2899" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2899" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2899" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2900" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2900" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2900" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2900" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2900" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2901" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2901" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2901" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2901" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2901" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2902" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2902" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2902" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2902" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2902" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2903" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2903" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2903" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2903" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2903" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2904" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2904" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2904" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2904" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2904" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2905" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2905" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2905" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2905" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2905" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2906" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2906" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2906" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2906" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2906" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2907" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2907" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2907" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2907" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2907" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2908" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2908" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2908" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2908" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2908" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2909" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2909" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2909" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2909" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2909" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2910" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2910" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2910" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2910" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2910" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2911" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2911" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2911" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2911" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2911" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2912" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2912" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2912" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2912" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2912" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2913" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2913" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2913" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2913" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2913" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2914" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2914" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2914" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2914" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2914" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2915" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2915" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2915" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2915" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2915" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2916" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2916" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2916" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2916" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2916" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2917" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2917" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2917" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2917" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2917" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2918" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2918" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2918" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2918" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2918" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2919" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2919" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2919" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2919" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2919" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2920" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2920" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2920" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2920" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2920" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2921" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2921" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2921" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2921" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2921" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2922" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2922" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2922" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2922" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2922" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2923" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2923" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2923" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2923" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2923" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2924" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2924" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2924" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2924" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2924" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2925" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2925" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2925" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2925" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2925" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2926" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2926" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2926" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2926" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2926" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2927" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2927" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2927" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2927" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2927" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2928" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2928" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2928" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2928" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2928" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2929" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2929" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2929" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2929" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2929" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2930" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2930" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2930" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2930" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2930" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2931" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2931" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2931" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2931" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2931" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2932" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2932" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2932" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2932" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2932" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2933" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2933" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2933" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2933" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2933" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2934" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2934" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2934" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2934" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2934" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2935" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2935" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2935" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2935" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2935" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2936" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2936" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2936" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2936" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2936" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2937" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2937" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2937" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2937" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2937" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2938" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2938" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2938" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2938" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2938" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2939" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2939" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2939" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2939" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2939" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2940" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2940" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2940" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2940" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2940" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2941" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2941" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2941" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2941" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2941" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2942" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2942" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2942" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2942" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2942" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2943" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2943" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2943" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2943" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2943" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2944" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2944" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2944" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2944" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2944" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2945" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2945" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2945" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2945" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2945" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2946" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2946" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2946" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2946" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2946" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2947" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2947" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2947" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2947" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2947" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2948" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2948" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2948" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2948" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2948" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2949" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2949" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2949" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2949" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2949" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2950" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2950" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2950" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2950" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2950" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2951" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2951" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2951" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2951" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2951" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2952" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2952" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2952" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2952" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2952" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2953" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2953" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2953" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2953" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2953" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2954" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2954" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2954" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2954" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2954" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2955" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2955" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2955" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2955" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2955" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2956" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2956" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2956" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2956" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2956" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2957" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2957" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2957" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2957" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2957" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2958" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2958" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2958" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2958" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2958" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2959" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2959" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2959" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2959" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2959" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2960" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2960" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2960" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2960" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2960" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2961" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2961" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2961" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2961" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2961" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2962" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2962" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2962" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2962" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2962" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2963" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2963" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2963" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2963" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2963" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2964" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2964" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2964" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2964" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2964" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2965" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2965" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2965" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2965" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2965" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2966" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2966" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2966" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2966" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2966" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2967" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2967" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2967" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2967" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2967" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2968" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2968" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2968" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2968" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2968" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2969" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2969" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2969" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2969" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2969" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2970" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2970" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2970" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2970" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2970" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2971" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2971" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2971" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2971" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2971" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2972" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2972" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2972" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2972" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2972" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2973" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2973" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2973" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2973" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2973" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2974" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2974" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2974" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2975" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2975" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2975" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2976" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2976" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2976" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2977" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2977" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2977" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2978" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2978" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2978" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2979" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2979" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2979" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2980" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2980" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2980" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2981" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2981" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2981" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2982" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2982" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2982" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2983" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2983" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2983" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2984" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2984" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2984" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2985" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2985" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2985" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2986" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2986" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2986" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2987" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2987" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2987" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2988" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2988" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2988" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2988" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2988" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2989" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2989" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2989" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2989" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2989" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2990" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2990" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2990" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2990" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2990" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2991" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2991" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2991" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2991" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2991" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2992" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2992" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2992" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2992" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2992" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2993" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2993" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2993" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2993" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2993" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2994" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2994" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2994" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2994" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2994" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2995" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2995" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2995" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2995" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2995" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2996" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2996" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2996" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2996" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2996" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2997" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2997" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2997" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2997" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2997" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2998" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2998" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2998" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2998" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2998" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2999" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2999" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2999" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2999" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2999" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3000" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3000" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3000" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3000" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3000" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3001" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3001" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3001" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3001" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3001" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -47471,15 +51758,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFD7C8349A9406459E368CD7F514FE79" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="423fbf72e319f6f0615e3b6672e63d37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd4a0f5b-7cde-4b5a-a880-b1d6b61f2e81" xmlns:ns3="5146c389-b906-4f30-a64f-4dbeeedc5eb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9df2abc6fdc49fec393593bda87cf87b" ns2:_="" ns3:_="">
     <xsd:import namespace="fd4a0f5b-7cde-4b5a-a880-b1d6b61f2e81"/>
@@ -47696,6 +51974,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -47703,14 +51990,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5B33199-E9F6-462E-96A4-B844804A17D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17CFBF-BF71-416D-A49B-2CAF0941F5DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47729,6 +52008,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5B33199-E9F6-462E-96A4-B844804A17D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D53581C-0DC0-4462-8E93-D29C2378DE5A}">
   <ds:schemaRefs>
